--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A019E03-988A-44B0-B10F-21837235018D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="GMBL" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,77 +654,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +780,23 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,8 +833,23 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +886,23 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -888,8 +917,13 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +960,23 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,19 +1013,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -987,23 +1051,38 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,8 +1119,23 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1053,46 +1147,66 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="K17" s="3">
         <v>-100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1100,37 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1274,13 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,19 +1288,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1183,8 +1317,23 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,57 +1341,72 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1259,46 +1423,76 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2100</v>
+        <v>-6300</v>
       </c>
       <c r="E23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1314,14 +1508,14 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1335,8 +1529,23 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1373,84 +1582,129 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2100</v>
+        <v>-6300</v>
       </c>
       <c r="E26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2100</v>
+        <v>-6300</v>
       </c>
       <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1487,8 +1741,23 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1525,8 +1794,23 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1563,8 +1847,23 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1601,8 +1900,23 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1610,19 +1924,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1639,46 +1953,76 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2100</v>
+        <v>-6300</v>
       </c>
       <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1715,89 +2059,134 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2100</v>
+        <v>-6300</v>
       </c>
       <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1812,8 +2201,13 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1828,46 +2222,66 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
       </c>
       <c r="I41" s="3">
+        <v>800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>400</v>
+      </c>
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1904,8 +2318,23 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1913,37 +2342,52 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1980,37 +2424,52 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2018,46 +2477,76 @@
       <c r="N45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>600</v>
+      </c>
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2094,8 +2583,23 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2109,45 +2613,60 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2159,19 +2678,34 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,8 +2742,23 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,8 +2795,23 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2272,20 +2836,35 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2322,46 +2901,76 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>700</v>
       </c>
       <c r="I54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
+        <v>700</v>
+      </c>
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2376,8 +2985,13 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2392,54 +3006,74 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -2447,50 +3081,65 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
@@ -2506,34 +3155,49 @@
       <c r="N59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -2544,22 +3208,37 @@
       <c r="N60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2582,8 +3261,23 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2620,8 +3314,23 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2658,8 +3367,23 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2696,8 +3420,23 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2734,34 +3473,49 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -2772,8 +3526,23 @@
       <c r="N66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2788,8 +3557,13 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2826,8 +3600,23 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2864,8 +3653,23 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2902,8 +3706,23 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2940,46 +3759,76 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-6800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="J72" s="3">
         <v>-4700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="K72" s="3">
         <v>-3800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="L72" s="3">
         <v>-3900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="M72" s="3">
         <v>-3000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="N72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="O72" s="3">
         <v>-1800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="P72" s="3">
         <v>-1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="Q72" s="3">
         <v>-1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="R72" s="3">
         <v>-1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="S72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3016,8 +3865,23 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3054,8 +3918,23 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3092,46 +3971,76 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>700</v>
       </c>
       <c r="K76" s="3">
         <v>300</v>
       </c>
       <c r="L76" s="3">
+        <v>200</v>
+      </c>
+      <c r="M76" s="3">
+        <v>600</v>
+      </c>
+      <c r="N76" s="3">
+        <v>900</v>
+      </c>
+      <c r="O76" s="3">
+        <v>700</v>
+      </c>
+      <c r="P76" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3168,89 +4077,134 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2100</v>
+        <v>-6300</v>
       </c>
       <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3265,8 +4219,13 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3280,31 +4239,46 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3341,8 +4315,23 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3379,8 +4368,23 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3417,8 +4421,23 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3455,8 +4474,23 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3493,46 +4527,76 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3547,16 +4611,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -3570,8 +4639,8 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3582,11 +4651,26 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3623,8 +4707,23 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3661,8 +4760,23 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3676,31 +4790,46 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3715,8 +4844,13 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3753,8 +4887,23 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3791,8 +4940,23 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3829,8 +4993,23 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3867,46 +5046,76 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3943,16 +5152,31 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3961,24 +5185,39 @@
         <v>-400</v>
       </c>
       <c r="H102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>900</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -3069,14 +3069,14 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -3176,13 +3176,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10100</v>
+        <v>14100</v>
       </c>
       <c r="E60" s="3">
-        <v>6400</v>
+        <v>9800</v>
       </c>
       <c r="F60" s="3">
-        <v>5400</v>
+        <v>8200</v>
       </c>
       <c r="G60" s="3">
         <v>5300</v>
@@ -3229,13 +3229,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,116 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -795,13 +803,19 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>400</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -848,13 +862,19 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>-200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,28 +1077,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1072,17 +1112,23 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>-100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,35 +1345,37 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1332,50 +1400,56 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,35 +1459,41 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5600</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1438,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1508,20 +1600,20 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,35 +2049,41 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>800</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>12400</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,31 +2513,37 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2371,11 +2557,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,41 +2631,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
@@ -2481,45 +2679,51 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>10400</v>
       </c>
       <c r="E46" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2528,25 +2732,31 @@
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2808,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2628,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2642,31 +2858,37 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2681,22 +2903,22 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,13 +3044,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2851,11 +3091,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>600</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,46 +3271,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>4100</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
       <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>800</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3064,37 +3326,43 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3102,11 +3370,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3117,35 +3385,41 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>9000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
@@ -3170,66 +3444,78 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>14100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
-        <v>100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3238,14 +3524,14 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3276,31 +3562,37 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
         <v>14100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
-      </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
       <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
-        <v>100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-22400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-14000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-9500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-7800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4620,15 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4239,17 +4637,17 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>-1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4262,11 +4660,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
       </c>
       <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-700</v>
       </c>
       <c r="N89" s="3">
         <v>-400</v>
       </c>
       <c r="O89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +5056,15 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -4639,14 +5081,14 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4666,11 +5108,17 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,32 +5229,38 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4808,13 +5268,13 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -4823,13 +5283,19 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,84 +5547,96 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E100" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>700</v>
-      </c>
-      <c r="N100" s="3">
-        <v>600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>500</v>
       </c>
       <c r="P100" s="3">
         <v>600</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -809,17 +812,20 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,17 +874,20 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,40 +1084,43 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1118,17 +1137,20 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,38 +1379,39 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1406,53 +1439,56 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,38 +1501,41 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5600</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1524,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1606,8 +1651,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1615,8 +1660,8 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,38 +2121,41 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2114,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>8900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12400</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,34 +2608,37 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2563,8 +2655,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,22 +2732,25 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2661,20 +2759,20 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
@@ -2685,78 +2783,84 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E46" s="3">
         <v>10400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13100</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,7 +2930,7 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2850,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2864,8 +2971,8 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>100</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -2873,17 +2980,20 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E49" s="3">
         <v>13500</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
@@ -2891,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -2909,10 +3019,10 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
@@ -2921,7 +3031,7 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,17 +3166,20 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -3097,8 +3216,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E54" s="3">
         <v>25400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,49 +3402,50 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>800</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
       </c>
       <c r="I57" s="3">
+        <v>800</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3344,28 +3477,28 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -3376,8 +3509,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3391,38 +3524,41 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
@@ -3450,47 +3586,50 @@
       <c r="U59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E60" s="3">
         <v>8200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
@@ -3498,19 +3637,22 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,7 +3660,7 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3530,11 +3672,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3568,16 +3710,19 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -3594,8 +3739,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,47 +3958,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
@@ -3852,19 +4009,22 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-10200</v>
       </c>
       <c r="J72" s="3">
         <v>-10200</v>
       </c>
       <c r="K72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-6800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-14000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,17 +4819,18 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -4643,14 +4841,14 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>-1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4666,8 +4864,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-500</v>
       </c>
       <c r="J89" s="3">
         <v>-500</v>
       </c>
       <c r="K89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,16 +5277,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -5087,11 +5307,11 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -5114,11 +5334,14 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5244,11 +5473,11 @@
         <v>-1100</v>
       </c>
       <c r="E94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5256,14 +5485,14 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5274,28 +5503,31 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,76 +5795,82 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14000</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
@@ -5638,8 +5886,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5671,20 +5919,23 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5692,42 +5943,45 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -815,20 +819,23 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -877,20 +884,23 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,43 +1104,46 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1140,17 +1160,20 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,41 +1413,42 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1442,56 +1476,59 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1515,30 +1555,30 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5600</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1654,8 +1700,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1663,8 +1709,8 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,41 +2191,44 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,37 +2701,40 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2658,8 +2751,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,25 +2831,28 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -2762,20 +2861,20 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
@@ -2786,81 +2885,87 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E46" s="3">
         <v>10600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13100</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,19 +3026,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2960,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2974,8 +3082,8 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>100</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
@@ -2983,20 +3091,23 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E49" s="3">
         <v>13400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13500</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
@@ -3004,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -3022,10 +3133,10 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -3034,7 +3145,7 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,20 +3286,23 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -3219,8 +3339,8 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E54" s="3">
         <v>25500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,52 +3533,53 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>800</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3465,13 +3596,16 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3480,28 +3614,28 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3512,8 +3646,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3527,41 +3661,44 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
@@ -3589,50 +3726,53 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E60" s="3">
         <v>11200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
@@ -3640,30 +3780,33 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3675,11 +3818,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3713,19 +3856,22 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3742,8 +3888,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,50 +4116,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
-        <v>100</v>
-      </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
@@ -4012,19 +4170,22 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-10200</v>
       </c>
       <c r="K72" s="3">
         <v>-10200</v>
       </c>
       <c r="L72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-6800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E76" s="3">
         <v>14000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-14000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,20 +5018,21 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -4844,14 +5043,14 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>-1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4867,8 +5066,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-500</v>
       </c>
       <c r="K89" s="3">
         <v>-500</v>
       </c>
       <c r="L89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5289,8 +5510,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5310,11 +5531,11 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -5337,11 +5558,14 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,23 +5691,26 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100</v>
+        <v>-30800</v>
       </c>
       <c r="E94" s="3">
         <v>-1100</v>
       </c>
       <c r="F94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5488,14 +5718,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5506,28 +5736,31 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,82 +6041,88 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E100" s="3">
         <v>3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14000</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
@@ -5889,8 +6138,8 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5922,23 +6171,26 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5946,42 +6198,45 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,143 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F8" s="3">
         <v>5400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -822,25 +830,31 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
-        <v>400</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -887,25 +901,31 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>-600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -952,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,49 +1141,55 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1163,17 +1203,23 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F17" s="3">
         <v>11000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>-100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,47 +1480,49 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1479,62 +1547,68 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,47 +1618,53 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5600</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1609,73 +1689,85 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1683,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1703,20 +1795,20 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
       </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,47 +2328,53 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
       </c>
       <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
       </c>
       <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F41" s="3">
         <v>16900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,43 +2884,49 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2754,11 +2940,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,53 +3026,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
@@ -2888,57 +3086,63 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F46" s="3">
         <v>26300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>13100</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>500</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -2947,25 +3151,31 @@
         <v>500</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
+        <v>500</v>
+      </c>
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
       <c r="W46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,26 +3239,32 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -3071,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3085,43 +3301,49 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>86700</v>
+      </c>
+      <c r="F49" s="3">
         <v>44800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>13400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>13500</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -3136,22 +3358,22 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
       </c>
       <c r="T49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,26 +3523,32 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
@@ -3342,11 +3582,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>119700</v>
+      </c>
+      <c r="F54" s="3">
         <v>73000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>25500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>25400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>600</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
       </c>
       <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+      <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,58 +3794,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F57" s="3">
         <v>8500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1100</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
+        <v>800</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3599,8 +3861,14 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,40 +3876,40 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3649,11 +3917,11 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3664,47 +3932,53 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
@@ -3729,91 +4003,103 @@
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F60" s="3">
         <v>9400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>100</v>
-      </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
       <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
-        <v>100</v>
-      </c>
-      <c r="W60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3821,14 +4107,14 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3859,25 +4145,31 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -3891,11 +4183,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>44900</v>
+      </c>
+      <c r="F66" s="3">
         <v>11600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
-        <v>100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>100</v>
-      </c>
       <c r="S66" s="3">
         <v>100</v>
       </c>
       <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
-        <v>100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-42100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-29600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>74800</v>
+      </c>
+      <c r="F76" s="3">
         <v>61400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>11400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-14000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-9500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-7800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-5500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
-      <c r="W76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
       </c>
       <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,26 +5415,28 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -5046,17 +5444,17 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>-1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -5069,11 +5467,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-500</v>
       </c>
       <c r="L89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-700</v>
       </c>
       <c r="R89" s="3">
         <v>-400</v>
       </c>
       <c r="S89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5939,15 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5513,11 +5955,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -5534,14 +5976,14 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5561,11 +6003,17 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,44 +6148,50 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-30800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5739,13 +6199,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
@@ -5754,13 +6214,19 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,91 +6530,103 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F100" s="3">
         <v>48500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>14000</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>700</v>
-      </c>
-      <c r="R100" s="3">
-        <v>600</v>
-      </c>
-      <c r="S100" s="3">
-        <v>500</v>
       </c>
       <c r="T100" s="3">
         <v>600</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6141,11 +6639,11 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F102" s="3">
         <v>12700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>12300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,149 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E8" s="3">
         <v>16400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -836,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,20 +851,20 @@
         <v>6500</v>
       </c>
       <c r="E9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F9" s="3">
         <v>3600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -907,29 +913,32 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-600</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,52 +1163,55 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>34700</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1209,17 +1228,20 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-200</v>
       </c>
       <c r="X18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,50 +1514,51 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E20" s="3">
         <v>10400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1553,65 +1586,68 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E21" s="3">
         <v>5000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,50 +1660,53 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5600</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1695,91 +1734,97 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-5500</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3800</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1801,8 +1846,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1810,8 +1855,8 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,50 +2400,53 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12400</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,46 +2979,49 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E43" s="3">
         <v>6200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2946,8 +3038,8 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,34 +3127,37 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -3068,20 +3166,20 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
@@ -3092,90 +3190,96 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13100</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,28 +3349,31 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
         <v>2000</v>
       </c>
       <c r="F48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3293,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3307,8 +3414,8 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>100</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
@@ -3316,29 +3423,32 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E49" s="3">
         <v>111400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>86700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13500</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
@@ -3346,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -3364,10 +3474,10 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T49" s="3">
         <v>100</v>
@@ -3376,7 +3486,7 @@
         <v>100</v>
       </c>
       <c r="V49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,29 +3645,32 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1300</v>
       </c>
       <c r="F52" s="3">
         <v>1300</v>
       </c>
       <c r="G52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -3588,8 +3707,8 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E54" s="3">
         <v>128800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>119700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>73000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
-        <v>100</v>
-      </c>
       <c r="X54" s="3">
         <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,61 +3925,62 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
+        <v>800</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3867,13 +3997,16 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>37100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -3882,7 +4015,7 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3891,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>100</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3923,8 +4056,8 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3938,50 +4071,53 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E59" s="3">
         <v>15900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
@@ -4009,59 +4145,62 @@
       <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E60" s="3">
         <v>26400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
@@ -4069,39 +4208,42 @@
         <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
       <c r="X60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
         <v>8100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4113,11 +4255,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4151,28 +4293,31 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E62" s="3">
         <v>20600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4189,8 +4334,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,59 +4589,62 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E66" s="3">
         <v>55100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
-        <v>100</v>
-      </c>
       <c r="T66" s="3">
         <v>100</v>
       </c>
@@ -4495,19 +4652,22 @@
         <v>100</v>
       </c>
       <c r="V66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
       </c>
       <c r="X66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,13 +4839,16 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-47500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-46900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-42100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-10200</v>
       </c>
       <c r="N72" s="3">
         <v>-10200</v>
       </c>
       <c r="O72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-6800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E76" s="3">
         <v>73700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>74800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>61400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-14000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
-      <c r="X76" s="3">
-        <v>0</v>
-      </c>
       <c r="Y76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,20 +5624,20 @@
         <v>3200</v>
       </c>
       <c r="E83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -5450,14 +5648,14 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>-1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -5473,8 +5671,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-500</v>
       </c>
       <c r="N89" s="3">
         <v>-500</v>
       </c>
       <c r="O89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-200</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,17 +6160,18 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5961,8 +6181,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -5982,11 +6202,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -6009,11 +6229,14 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,32 +6380,35 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30800</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1100</v>
       </c>
       <c r="H94" s="3">
         <v>-1100</v>
       </c>
       <c r="I94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6187,14 +6416,14 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6205,28 +6434,31 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,100 +6778,106 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>33600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>48500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14000</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6645,8 +6893,8 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -6678,32 +6926,35 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -6711,42 +6962,45 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,156 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E8" s="3">
         <v>14500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -842,32 +846,35 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="E9" s="3">
         <v>6500</v>
       </c>
       <c r="F9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G9" s="3">
         <v>3600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -916,32 +923,35 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E10" s="3">
         <v>8000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-600</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,55 +1183,58 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E14" s="3">
         <v>34700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1231,17 +1251,20 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E17" s="3">
         <v>61000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-46500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-200</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,53 +1548,54 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E20" s="3">
         <v>9100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1589,68 +1623,71 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-34200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1663,53 +1700,56 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5600</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1737,97 +1777,103 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-39800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-3800</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1849,8 +1895,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1858,8 +1904,8 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,53 +2470,56 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12400</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,49 +3072,52 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3041,8 +3134,8 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3139,28 +3238,28 @@
         <v>4700</v>
       </c>
       <c r="E45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -3169,20 +3268,20 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
@@ -3193,93 +3292,99 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E46" s="3">
         <v>12000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13100</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,31 +3457,34 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2000</v>
       </c>
       <c r="F48" s="3">
         <v>2000</v>
       </c>
       <c r="G48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="3">
         <v>600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -3403,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3417,8 +3525,8 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
+      <c r="X48" s="3">
+        <v>100</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
@@ -3426,32 +3534,35 @@
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E49" s="3">
         <v>107300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>111400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>86700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13500</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
@@ -3459,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -3477,10 +3588,10 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U49" s="3">
         <v>100</v>
@@ -3489,7 +3600,7 @@
         <v>100</v>
       </c>
       <c r="W49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,32 +3765,35 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1300</v>
       </c>
       <c r="G52" s="3">
         <v>1300</v>
       </c>
       <c r="H52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
@@ -3710,8 +3830,8 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E54" s="3">
         <v>124200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>128800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>119700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>73000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
       <c r="Y54" s="3">
         <v>100</v>
       </c>
       <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,64 +4056,65 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
         <v>10300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -4000,16 +4131,19 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E58" s="3">
         <v>37100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -4018,7 +4152,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4027,28 +4161,28 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>100</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -4059,8 +4193,8 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4074,53 +4208,56 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E59" s="3">
         <v>13700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
@@ -4148,62 +4285,65 @@
       <c r="Z59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E60" s="3">
         <v>61100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
-        <v>100</v>
-      </c>
       <c r="U60" s="3">
         <v>100</v>
       </c>
@@ -4211,19 +4351,22 @@
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
       </c>
       <c r="Y60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4231,22 +4374,22 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>8100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4258,11 +4401,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4296,31 +4439,34 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E62" s="3">
         <v>5400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -4337,8 +4483,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,62 +4747,65 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E66" s="3">
         <v>66600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>44900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
-        <v>100</v>
-      </c>
       <c r="U66" s="3">
         <v>100</v>
       </c>
@@ -4655,19 +4813,22 @@
         <v>100</v>
       </c>
       <c r="W66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
       </c>
       <c r="Y66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,17 +5007,20 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E70" s="3">
         <v>7600</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-145400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-81800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-46900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-42100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-10200</v>
       </c>
       <c r="O72" s="3">
         <v>-10200</v>
       </c>
       <c r="P72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>50000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>73700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>61400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-14000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
-      <c r="Y76" s="3">
-        <v>0</v>
-      </c>
       <c r="Z76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,32 +5813,33 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E83" s="3">
         <v>3200</v>
       </c>
       <c r="F83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -5651,14 +5850,14 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>-1200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -5674,8 +5873,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-500</v>
       </c>
       <c r="O89" s="3">
         <v>-500</v>
       </c>
       <c r="P89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6170,11 +6391,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -6184,8 +6405,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -6205,11 +6426,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -6232,11 +6453,14 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,35 +6610,38 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1100</v>
       </c>
       <c r="I94" s="3">
         <v>-1100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6419,14 +6649,14 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6437,28 +6667,31 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,106 +7024,112 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E100" s="3">
         <v>8900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>33600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>48500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14000</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6896,8 +7145,8 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6929,35 +7178,38 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6965,42 +7217,45 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,163 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E8" s="3">
         <v>15700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -849,35 +853,38 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E9" s="3">
         <v>6300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>6500</v>
       </c>
       <c r="F9" s="3">
         <v>6500</v>
       </c>
       <c r="G9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H9" s="3">
         <v>3600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,35 +933,38 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E10" s="3">
         <v>9400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,58 +1203,61 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E14" s="3">
         <v>38600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>34700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1254,17 +1274,20 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E17" s="3">
         <v>66300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>61000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
       </c>
       <c r="Z17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-50600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-46500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-200</v>
       </c>
       <c r="Y18" s="3">
         <v>-200</v>
       </c>
       <c r="Z18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,56 +1582,57 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1626,71 +1660,74 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-59800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-34200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,56 +1740,59 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5600</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1780,103 +1820,109 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-63600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
       </c>
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-5500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-3800</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1898,8 +1944,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
@@ -1907,8 +1953,8 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-63600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-63800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,56 +2540,59 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E32" s="3">
         <v>12300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-63800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-63800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
         <v>9400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,53 +3165,56 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
@@ -3137,8 +3230,8 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,40 +3325,43 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4700</v>
+        <v>3800</v>
       </c>
       <c r="E45" s="3">
         <v>4700</v>
       </c>
       <c r="F45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
@@ -3271,19 +3370,19 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3295,96 +3394,102 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E46" s="3">
         <v>17100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,34 +3565,37 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2000</v>
       </c>
       <c r="G48" s="3">
         <v>2000</v>
       </c>
       <c r="H48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3514,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3528,8 +3636,8 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
+      <c r="Y48" s="3">
+        <v>100</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
@@ -3537,35 +3645,38 @@
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E49" s="3">
         <v>66000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>107300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>111400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>86700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>44800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13500</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
@@ -3573,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -3591,10 +3702,10 @@
         <v>100</v>
       </c>
       <c r="T49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V49" s="3">
         <v>100</v>
@@ -3603,7 +3714,7 @@
         <v>100</v>
       </c>
       <c r="X49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,35 +3885,38 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
       </c>
       <c r="I52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -3833,8 +3953,8 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E54" s="3">
         <v>85700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>124200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>128800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>119700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>73000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>500</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>100</v>
       </c>
       <c r="Z54" s="3">
         <v>100</v>
       </c>
       <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,68 +4187,69 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
+        <v>800</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
@@ -4134,19 +4265,22 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E58" s="3">
         <v>35300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>37100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -4155,7 +4289,7 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4164,28 +4298,28 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
@@ -4196,8 +4330,8 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4211,55 +4345,58 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E59" s="3">
         <v>32200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -4288,64 +4425,67 @@
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E60" s="3">
         <v>76300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>61100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>100</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
@@ -4354,45 +4494,48 @@
         <v>100</v>
       </c>
       <c r="X60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="3">
         <v>200</v>
       </c>
       <c r="Z60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>8100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4404,11 +4547,11 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4442,34 +4585,37 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
         <v>6800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -4486,8 +4632,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,64 +4905,67 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E66" s="3">
         <v>83300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>66600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>44900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>100</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
@@ -4816,19 +4974,22 @@
         <v>100</v>
       </c>
       <c r="X66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y66" s="3">
         <v>200</v>
       </c>
       <c r="Z66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,20 +5175,23 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E70" s="3">
         <v>7700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>7600</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-149100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-145400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-81800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-46900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-42100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-10200</v>
       </c>
       <c r="P72" s="3">
         <v>-10200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-6800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>73700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>74800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-14000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
-      <c r="Z76" s="3">
-        <v>0</v>
-      </c>
       <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-63800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,35 +6012,36 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3200</v>
       </c>
       <c r="F83" s="3">
         <v>3200</v>
       </c>
       <c r="G83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H83" s="3">
         <v>1800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -5853,14 +6052,14 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>-1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -5876,8 +6075,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>4</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-500</v>
       </c>
       <c r="P89" s="3">
         <v>-500</v>
       </c>
       <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-200</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,23 +6602,24 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -6408,8 +6629,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -6429,11 +6650,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -6456,11 +6677,14 @@
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,38 +6840,41 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1100</v>
       </c>
       <c r="J94" s="3">
         <v>-1100</v>
       </c>
       <c r="K94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6652,14 +6882,14 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6670,28 +6900,31 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,112 +7270,118 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>15700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>33600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>48500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
@@ -7148,8 +7397,8 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -7181,38 +7430,41 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E102" s="3">
         <v>8900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -7220,42 +7472,45 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,176 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F8" s="3">
         <v>11700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>15700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>14500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>16400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>8800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -856,41 +863,47 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F9" s="3">
         <v>4900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>6500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -936,41 +949,47 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F10" s="3">
         <v>6800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>9400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>9900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,64 +1239,70 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>7900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>38600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>34700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1277,17 +1316,23 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F17" s="3">
         <v>29800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>66300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>61000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>25000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>19300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>-100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-50600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-46500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-10500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,62 +1648,64 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>15200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-12300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>9100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>10400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-6800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1663,77 +1730,83 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-59800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-34200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>5000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-11600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,62 +1816,68 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>5600</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1823,112 +1902,124 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-63600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-39800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-12400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-200</v>
       </c>
       <c r="Z23" s="3">
         <v>-300</v>
       </c>
       <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-5500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-3800</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1947,20 +2038,20 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-63600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-34300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-12400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-200</v>
       </c>
       <c r="Z26" s="3">
         <v>-300</v>
       </c>
       <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-63800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-34500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-12400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-200</v>
       </c>
       <c r="Z27" s="3">
         <v>-300</v>
       </c>
       <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,62 +2676,68 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-15200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>12300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-9100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-10400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>6800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-63800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-34500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-12400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-200</v>
       </c>
       <c r="Z33" s="3">
         <v>-300</v>
       </c>
       <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-63800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-34500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-12400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-200</v>
       </c>
       <c r="Z35" s="3">
         <v>-300</v>
       </c>
       <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>19900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>16900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12400</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,58 +3347,64 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>6300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>6200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3233,11 +3418,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,67 +3519,73 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
-      <c r="V45" s="3">
-        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3397,72 +3594,78 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F46" s="3">
         <v>10000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>17100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>12000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>13000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>29700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>26300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>13100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>500</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
@@ -3471,25 +3674,31 @@
         <v>500</v>
       </c>
       <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
         <v>100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,32 +3792,32 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -3625,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3639,58 +3854,64 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>47900</v>
+      </c>
+      <c r="F49" s="3">
         <v>52600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>66000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>107300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>111400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>86700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>44800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>13400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>13500</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -3705,22 +3926,22 @@
         <v>100</v>
       </c>
       <c r="U49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V49" s="3">
         <v>100</v>
       </c>
       <c r="W49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X49" s="3">
         <v>100</v>
       </c>
       <c r="Y49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,41 +4121,47 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -3956,11 +4195,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>59900</v>
+      </c>
+      <c r="F54" s="3">
         <v>64900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>85700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>124200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>128800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>119700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>73000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>25500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>25400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1400</v>
-      </c>
-      <c r="S54" s="3">
-        <v>400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>600</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
       </c>
       <c r="V54" s="3">
+        <v>600</v>
+      </c>
+      <c r="W54" s="3">
+        <v>400</v>
+      </c>
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,74 +4447,76 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F57" s="3">
         <v>9700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1100</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
+        <v>800</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
@@ -4268,76 +4529,82 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F58" s="3">
         <v>35100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>35300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>37100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4348,61 +4615,67 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F59" s="3">
         <v>20900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>32200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>13700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>15900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
-      <c r="T59" s="3">
-        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -4428,88 +4701,100 @@
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>62500</v>
+      </c>
+      <c r="F60" s="3">
         <v>65800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>76300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>61100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>26400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>12200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>14100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>100</v>
-      </c>
-      <c r="W60" s="3">
-        <v>100</v>
       </c>
       <c r="X60" s="3">
         <v>100</v>
       </c>
       <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,32 +4802,32 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>8100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4550,14 +4835,14 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4588,41 +4873,47 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>20600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>26200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4635,11 +4926,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>68200</v>
+      </c>
+      <c r="F66" s="3">
         <v>68700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>83300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>66600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>55100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>44900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
-      </c>
-      <c r="V66" s="3">
-        <v>100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>100</v>
       </c>
       <c r="X66" s="3">
         <v>100</v>
       </c>
       <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA66" s="3">
         <v>200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,26 +5507,32 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E70" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F70" s="3">
         <v>7800</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>7700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>7600</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-167400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-153300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-149100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-145400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-81800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-47500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-46900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-42100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-29600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-22300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-20500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-22400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-16100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-2300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-11600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>50000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>73700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>74800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>61400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>14000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>16800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-14000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-9500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-7800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
-      <c r="AA76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-63800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-34500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-12400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-200</v>
       </c>
       <c r="Z81" s="3">
         <v>-300</v>
       </c>
       <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,41 +6408,43 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
         <v>2500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -6055,17 +6452,17 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -6078,11 +6475,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>4</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-7800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-500</v>
       </c>
       <c r="Q89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-700</v>
       </c>
       <c r="W89" s="3">
         <v>-400</v>
       </c>
       <c r="X89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,40 +7042,42 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -6653,14 +7094,14 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
@@ -6680,11 +7121,17 @@
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,59 +7296,65 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-23200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-30800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6903,13 +7362,13 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
@@ -6918,13 +7377,19 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,121 +7758,133 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>15700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>8900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>33600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>48500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>14000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
-      </c>
-      <c r="W100" s="3">
-        <v>600</v>
-      </c>
-      <c r="X100" s="3">
-        <v>500</v>
       </c>
       <c r="Y100" s="3">
         <v>600</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
@@ -7400,11 +7897,11 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>8900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-19500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>12700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>12300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -7049,11 +7049,11 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -7068,7 +7068,7 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,183 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -869,44 +873,47 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>6500</v>
       </c>
       <c r="I9" s="3">
         <v>6500</v>
       </c>
       <c r="J9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -955,44 +962,47 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="3">
         <v>4000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,67 +1262,70 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>16100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>7900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>38600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>34700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1322,17 +1342,20 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E17" s="3">
         <v>27900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>66300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>200</v>
       </c>
       <c r="AB17" s="3">
         <v>200</v>
       </c>
       <c r="AC17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-50600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-46500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-200</v>
       </c>
       <c r="AB18" s="3">
         <v>-200</v>
       </c>
       <c r="AC18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AD18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,65 +1683,66 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>8300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1736,80 +1770,83 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-59800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-34200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1822,65 +1859,68 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
       </c>
       <c r="G22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5600</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-63600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-39800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>-100</v>
       </c>
       <c r="AD23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2006,23 +2052,23 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-5500</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3800</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -2044,8 +2090,8 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
@@ -2053,8 +2099,8 @@
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-63600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>-100</v>
       </c>
       <c r="AD26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-63800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-100</v>
       </c>
       <c r="AD27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,65 +2749,68 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-63800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-100</v>
       </c>
       <c r="AD33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-63800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-100</v>
       </c>
       <c r="AD35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12400</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,62 +3443,65 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
@@ -3424,8 +3517,8 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
+      <c r="Z43" s="3">
+        <v>0</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,49 +3621,52 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4700</v>
       </c>
       <c r="H45" s="3">
         <v>4700</v>
       </c>
       <c r="I45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -3576,19 +3675,19 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3600,105 +3699,111 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E46" s="3">
         <v>7900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
       <c r="AC46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,13 +3888,16 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -3798,28 +3906,28 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2000</v>
       </c>
       <c r="J48" s="3">
         <v>2000</v>
       </c>
       <c r="K48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L48" s="3">
         <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3846,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
@@ -3860,8 +3968,8 @@
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
+      <c r="AB48" s="3">
+        <v>100</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>4</v>
@@ -3869,44 +3977,47 @@
       <c r="AD48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E49" s="3">
         <v>33600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>47900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>52600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>66000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>107300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>111400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>86700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>44800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13500</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
@@ -3914,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
@@ -3932,10 +4043,10 @@
         <v>100</v>
       </c>
       <c r="W49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="3">
         <v>100</v>
@@ -3944,7 +4055,7 @@
         <v>100</v>
       </c>
       <c r="AA49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,44 +4244,47 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1300</v>
       </c>
       <c r="L52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -4201,8 +4321,8 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
+      <c r="AA52" s="3">
+        <v>0</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>4</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E54" s="3">
         <v>43200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>59900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>85700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>124200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>128800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>119700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>500</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>100</v>
       </c>
       <c r="AC54" s="3">
         <v>100</v>
       </c>
       <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,77 +4579,78 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
         <v>9500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
       </c>
       <c r="R57" s="3">
+        <v>800</v>
+      </c>
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
@@ -4535,28 +4666,31 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32300</v>
+        <v>15900</v>
       </c>
       <c r="E58" s="3">
         <v>32300</v>
       </c>
       <c r="F58" s="3">
+        <v>32300</v>
+      </c>
+      <c r="G58" s="3">
         <v>35100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>35300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>37100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -4565,7 +4699,7 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4574,28 +4708,28 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>4000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
-      </c>
-      <c r="T58" s="3">
-        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
+      <c r="V58" s="3">
+        <v>100</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
@@ -4606,8 +4740,8 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4621,64 +4755,67 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E59" s="3">
         <v>13000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
@@ -4707,73 +4844,76 @@
       <c r="AD59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E60" s="3">
         <v>54900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>62500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>65800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>61100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>100</v>
       </c>
       <c r="Y60" s="3">
         <v>100</v>
@@ -4782,19 +4922,22 @@
         <v>100</v>
       </c>
       <c r="AA60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB60" s="3">
         <v>200</v>
       </c>
       <c r="AC60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4808,28 +4951,28 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>8100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4841,11 +4984,11 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4879,43 +5022,46 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>6200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -4932,8 +5078,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,73 +5378,76 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E66" s="3">
         <v>61100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>83300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>66600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
-      </c>
-      <c r="X66" s="3">
-        <v>100</v>
       </c>
       <c r="Y66" s="3">
         <v>100</v>
@@ -5298,19 +5456,22 @@
         <v>100</v>
       </c>
       <c r="AA66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB66" s="3">
         <v>200</v>
       </c>
       <c r="AC66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,29 +5678,32 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="E70" s="3">
         <v>7900</v>
       </c>
       <c r="F70" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G70" s="3">
         <v>7800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>7700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>7600</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-180600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-167400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-153300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-149100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-145400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-81800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-46900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-42100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-10200</v>
       </c>
       <c r="S72" s="3">
         <v>-10200</v>
       </c>
       <c r="T72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="U72" s="3">
         <v>-6800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-25800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-16100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>73700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>74800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-14000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-100</v>
       </c>
-      <c r="AC76" s="3">
-        <v>0</v>
-      </c>
       <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-63800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-100</v>
       </c>
       <c r="AD81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,44 +6608,45 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
       </c>
       <c r="F83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3200</v>
       </c>
       <c r="I83" s="3">
         <v>3200</v>
       </c>
       <c r="J83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -6458,14 +6657,14 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>-1200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
@@ -6481,8 +6680,8 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>4</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-500</v>
       </c>
       <c r="S89" s="3">
         <v>-500</v>
       </c>
       <c r="T89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-200</v>
       </c>
       <c r="AA89" s="3">
         <v>-200</v>
       </c>
       <c r="AB89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AC89" s="3">
         <v>0</v>
       </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7056,22 +7277,22 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -7079,8 +7300,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -7100,11 +7321,11 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -7127,11 +7348,14 @@
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,47 +7529,50 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30800</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1100</v>
       </c>
       <c r="M94" s="3">
         <v>-1100</v>
       </c>
       <c r="N94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -7350,14 +7580,14 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -7368,28 +7598,31 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
       <c r="AC94" s="3">
         <v>0</v>
       </c>
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,130 +8007,136 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>33600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>14000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>600</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
@@ -7903,8 +8152,8 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -7936,47 +8185,50 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -7984,42 +8236,45 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>GMBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,190 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -876,47 +880,50 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6500</v>
       </c>
       <c r="J9" s="3">
         <v>6500</v>
       </c>
       <c r="K9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L9" s="3">
         <v>3600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,47 +972,50 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>2900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,70 +1282,73 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>7900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>38600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>34700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1345,17 +1365,20 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
+      <c r="AC14" s="3">
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>16600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>66300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>-100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>200</v>
       </c>
       <c r="AC17" s="3">
         <v>200</v>
       </c>
       <c r="AD17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AE17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-50600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-46500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-200</v>
       </c>
       <c r="AC18" s="3">
         <v>-200</v>
       </c>
       <c r="AD18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AE18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,68 +1717,69 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1773,83 +1807,86 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-59800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-34200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1862,68 +1899,71 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1100</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
       </c>
       <c r="H22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5600</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-63600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-39800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-300</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>-100</v>
       </c>
       <c r="AE23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2055,23 +2101,23 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-5500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-3800</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -2093,8 +2139,8 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>4</v>
@@ -2102,8 +2148,8 @@
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-63600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-300</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>-100</v>
       </c>
       <c r="AE26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-63800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-300</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>-100</v>
       </c>
       <c r="AE27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,68 +2819,71 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-63800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-300</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>-100</v>
       </c>
       <c r="AE33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-63800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-300</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>-100</v>
       </c>
       <c r="AE35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12400</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
       <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
       <c r="AD41" s="3">
         <v>0</v>
       </c>
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,65 +3536,68 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
@@ -3520,8 +3613,8 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
+      <c r="AA43" s="3">
+        <v>0</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,52 +3720,55 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4700</v>
       </c>
       <c r="I45" s="3">
         <v>4700</v>
       </c>
       <c r="J45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
@@ -3678,19 +3777,19 @@
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
-      </c>
-      <c r="X45" s="3">
-        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3702,108 +3801,114 @@
         <v>100</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC45" s="3">
         <v>0</v>
       </c>
       <c r="AD45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>400</v>
       </c>
-      <c r="AC46" s="3">
-        <v>0</v>
-      </c>
       <c r="AD46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3900,7 +4008,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -3909,28 +4017,28 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2000</v>
       </c>
       <c r="K48" s="3">
         <v>2000</v>
       </c>
       <c r="L48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M48" s="3">
         <v>600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3957,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
@@ -3971,8 +4079,8 @@
       <c r="AB48" s="3">
         <v>100</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>4</v>
+      <c r="AC48" s="3">
+        <v>100</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>4</v>
@@ -3980,47 +4088,50 @@
       <c r="AE48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E49" s="3">
         <v>18800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>33600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>47900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>52600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>66000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>107300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>111400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>86700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>44800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13500</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
@@ -4028,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
@@ -4046,10 +4157,10 @@
         <v>100</v>
       </c>
       <c r="X49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="3">
         <v>100</v>
@@ -4058,7 +4169,7 @@
         <v>100</v>
       </c>
       <c r="AB49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,47 +4364,50 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1300</v>
       </c>
       <c r="L52" s="3">
         <v>1300</v>
       </c>
       <c r="M52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -4324,8 +4444,8 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>4</v>
+      <c r="AB52" s="3">
+        <v>0</v>
       </c>
       <c r="AC52" s="3" t="s">
         <v>4</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E54" s="3">
         <v>24400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>59900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>85700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>124200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>128800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>119700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>73000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>500</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>100</v>
       </c>
       <c r="AD54" s="3">
         <v>100</v>
       </c>
       <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,80 +4710,81 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>800</v>
       </c>
       <c r="R57" s="3">
         <v>800</v>
       </c>
       <c r="S57" s="3">
+        <v>800</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
       <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
@@ -4669,31 +4800,34 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>15900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>32300</v>
       </c>
       <c r="F58" s="3">
         <v>32300</v>
       </c>
       <c r="G58" s="3">
+        <v>32300</v>
+      </c>
+      <c r="H58" s="3">
         <v>35100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>35300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>37100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -4702,7 +4836,7 @@
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4711,28 +4845,28 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
-      </c>
-      <c r="U58" s="3">
-        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
+      <c r="W58" s="3">
+        <v>100</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
@@ -4743,8 +4877,8 @@
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
@@ -4758,67 +4892,70 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>7600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3300</v>
-      </c>
-      <c r="V59" s="3">
-        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
@@ -4847,76 +4984,79 @@
       <c r="AE59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E60" s="3">
         <v>29000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>65800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>76300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>61100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>100</v>
       </c>
       <c r="Z60" s="3">
         <v>100</v>
@@ -4925,19 +5065,22 @@
         <v>100</v>
       </c>
       <c r="AB60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC60" s="3">
         <v>200</v>
       </c>
       <c r="AD60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AE60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4954,28 +5097,28 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>8100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>300</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4987,11 +5130,11 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -5025,46 +5168,49 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -5081,8 +5227,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,76 +5536,79 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
         <v>30000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>83300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>66600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>100</v>
       </c>
       <c r="Z66" s="3">
         <v>100</v>
@@ -5459,19 +5617,22 @@
         <v>100</v>
       </c>
       <c r="AB66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC66" s="3">
         <v>200</v>
       </c>
       <c r="AD66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AE66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,32 +5846,35 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E70" s="3">
         <v>8000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>7900</v>
       </c>
       <c r="F70" s="3">
         <v>7900</v>
       </c>
       <c r="G70" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H70" s="3">
         <v>7800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>7700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>7600</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-181400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-180600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-167400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-153300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-149100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-145400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-81800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-42100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-10200</v>
       </c>
       <c r="T72" s="3">
         <v>-10200</v>
       </c>
       <c r="U72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="V72" s="3">
         <v>-6800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-13600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-25800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-16100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>73700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>61400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-9500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-7800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-100</v>
       </c>
-      <c r="AD76" s="3">
-        <v>0</v>
-      </c>
       <c r="AE76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-63800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-300</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>-100</v>
       </c>
       <c r="AE81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,47 +6807,48 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1900</v>
       </c>
       <c r="F83" s="3">
         <v>1900</v>
       </c>
       <c r="G83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3200</v>
       </c>
       <c r="J83" s="3">
         <v>3200</v>
       </c>
       <c r="K83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L83" s="3">
         <v>1800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -6660,14 +6859,14 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>-1200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1200</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
@@ -6683,8 +6882,8 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
+      <c r="AA83" s="3">
+        <v>0</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>4</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-500</v>
       </c>
       <c r="T89" s="3">
         <v>-500</v>
       </c>
       <c r="U89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-200</v>
       </c>
       <c r="AB89" s="3">
         <v>-200</v>
       </c>
       <c r="AC89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AD89" s="3">
         <v>0</v>
       </c>
       <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7280,22 +7501,22 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -7303,8 +7524,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -7324,11 +7545,11 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
@@ -7351,11 +7572,14 @@
       <c r="AD91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,50 +7759,53 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>2900</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30800</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1100</v>
       </c>
       <c r="N94" s="3">
         <v>-1100</v>
       </c>
       <c r="O94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -7583,14 +7813,14 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -7601,28 +7831,31 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
       <c r="AD94" s="3">
         <v>0</v>
       </c>
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,136 +8253,142 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>33600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>600</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
         <v>0</v>
       </c>
       <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
@@ -8155,8 +8404,8 @@
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -8188,50 +8437,53 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -8239,42 +8491,45 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
